--- a/data/migrating_birds_results.xlsx
+++ b/data/migrating_birds_results.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AngryMurloc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgcrp/Documents/GitHub/hse_graphvis_2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E32CA-1B3D-BC47-875D-7FC0DB22785C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25360" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="422">
   <si>
     <t>Name</t>
   </si>
@@ -1237,12 +1249,60 @@
   </si>
   <si>
     <t>4.967630835969634</t>
+  </si>
+  <si>
+    <t>fact_type</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>Канадский гусь, карл!</t>
+  </si>
+  <si>
+    <t>Голубь</t>
+  </si>
+  <si>
+    <t>Ворон</t>
+  </si>
+  <si>
+    <t>Домашний воробей</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Specificity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1393,6 +1453,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1428,6 +1505,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1603,23 +1697,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,8 +1732,26 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1658,8 +1770,27 @@
       <c r="F2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIFS($G$2:$G$115,"=1",$B$2:$B$115,"=Перелётная")</f>
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIFS($G$2:$G$115,"=0",$B$2:$B$115,"=Перелётная")</f>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIFS($G$2:$G$115,"=0",$B$2:$B$115,"=Не перелётная")</f>
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS($G$2:$G$115,"=1",$B$2:$B$115,"=Не перелётная")</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1678,8 +1809,11 @@
       <c r="F3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1698,8 +1832,26 @@
       <c r="F4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1718,8 +1870,31 @@
       <c r="F5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>I2/(I2+J2)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="J5">
+        <f>I2/(I2+L2)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K5">
+        <f>(2*I5*J5)/(I5+J5)</f>
+        <v>0.43697478991596639</v>
+      </c>
+      <c r="L5">
+        <f>(I2+K2)/(I2+J2+K2+L2)</f>
+        <v>0.41228070175438597</v>
+      </c>
+      <c r="M5">
+        <f>K2/(K2+J2)</f>
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1738,8 +1913,11 @@
       <c r="F6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1758,8 +1936,11 @@
       <c r="F7" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1778,8 +1959,11 @@
       <c r="F8" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1798,8 +1982,11 @@
       <c r="F9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1818,8 +2005,11 @@
       <c r="F10" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1838,8 +2028,11 @@
       <c r="F11" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1858,8 +2051,11 @@
       <c r="F12" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1878,8 +2074,11 @@
       <c r="F13" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1898,8 +2097,11 @@
       <c r="F14" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1918,8 +2120,14 @@
       <c r="F15" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1938,8 +2146,11 @@
       <c r="F16" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1958,8 +2169,11 @@
       <c r="F17" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1978,8 +2192,14 @@
       <c r="F18" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2218,11 @@
       <c r="F19" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2018,8 +2241,11 @@
       <c r="F20" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2038,8 +2264,11 @@
       <c r="F21" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2058,8 +2287,11 @@
       <c r="F22" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2078,8 +2310,11 @@
       <c r="F23" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2098,8 +2333,14 @@
       <c r="F24" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2118,8 +2359,11 @@
       <c r="F25" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2138,8 +2382,11 @@
       <c r="F26" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2158,8 +2405,11 @@
       <c r="F27" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2178,8 +2428,14 @@
       <c r="F28" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2198,8 +2454,11 @@
       <c r="F29" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2218,8 +2477,11 @@
       <c r="F30" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2238,8 +2500,14 @@
       <c r="F31" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2258,8 +2526,11 @@
       <c r="F32" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2278,8 +2549,11 @@
       <c r="F33" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2298,8 +2572,11 @@
       <c r="F34" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2318,8 +2595,11 @@
       <c r="F35" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2338,8 +2618,11 @@
       <c r="F36" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2358,8 +2641,11 @@
       <c r="F37" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2378,8 +2664,11 @@
       <c r="F38" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2687,11 @@
       <c r="F39" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2418,8 +2710,11 @@
       <c r="F40" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2438,8 +2733,14 @@
       <c r="F41" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2458,8 +2759,11 @@
       <c r="F42" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2478,8 +2782,11 @@
       <c r="F43" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2498,8 +2805,11 @@
       <c r="F44" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2518,8 +2828,11 @@
       <c r="F45" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2538,8 +2851,14 @@
       <c r="F46" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2558,8 +2877,11 @@
       <c r="F47" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2578,8 +2900,11 @@
       <c r="F48" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2598,8 +2923,11 @@
       <c r="F49" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2618,8 +2946,14 @@
       <c r="F50" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2638,8 +2972,14 @@
       <c r="F51" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2658,8 +2998,11 @@
       <c r="F52" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2678,8 +3021,11 @@
       <c r="F53" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2698,8 +3044,11 @@
       <c r="F54" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2718,8 +3067,11 @@
       <c r="F55" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -2738,8 +3090,14 @@
       <c r="F56" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2758,8 +3116,11 @@
       <c r="F57" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -2778,8 +3139,11 @@
       <c r="F58" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2798,8 +3162,11 @@
       <c r="F59" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2818,8 +3185,11 @@
       <c r="F60" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2838,8 +3208,11 @@
       <c r="F61" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2858,8 +3231,11 @@
       <c r="F62" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2878,8 +3254,11 @@
       <c r="F63" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2898,8 +3277,11 @@
       <c r="F64" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2918,8 +3300,11 @@
       <c r="F65" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2938,8 +3323,14 @@
       <c r="F66" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2958,8 +3349,11 @@
       <c r="F67" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2978,8 +3372,11 @@
       <c r="F68" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2998,8 +3395,11 @@
       <c r="F69" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -3018,8 +3418,11 @@
       <c r="F70" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -3038,8 +3441,11 @@
       <c r="F71" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -3058,8 +3464,11 @@
       <c r="F72" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -3078,8 +3487,11 @@
       <c r="F73" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -3098,8 +3510,11 @@
       <c r="F74" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -3118,8 +3533,11 @@
       <c r="F75" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -3138,8 +3556,11 @@
       <c r="F76" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -3158,8 +3579,11 @@
       <c r="F77" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -3178,8 +3602,11 @@
       <c r="F78" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -3198,8 +3625,11 @@
       <c r="F79" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -3218,8 +3648,11 @@
       <c r="F80" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -3238,8 +3671,11 @@
       <c r="F81" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -3258,8 +3694,11 @@
       <c r="F82" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -3278,8 +3717,11 @@
       <c r="F83" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -3298,8 +3740,11 @@
       <c r="F84" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -3318,8 +3763,14 @@
       <c r="F85" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3338,8 +3789,11 @@
       <c r="F86" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -3358,8 +3812,11 @@
       <c r="F87" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -3378,8 +3835,11 @@
       <c r="F88" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -3398,8 +3858,11 @@
       <c r="F89" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -3418,8 +3881,11 @@
       <c r="F90" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -3438,8 +3904,14 @@
       <c r="F91" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -3458,8 +3930,11 @@
       <c r="F92" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -3478,8 +3953,11 @@
       <c r="F93" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -3498,8 +3976,11 @@
       <c r="F94" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -3518,8 +3999,11 @@
       <c r="F95" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -3538,8 +4022,11 @@
       <c r="F96" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -3558,8 +4045,11 @@
       <c r="F97" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -3578,8 +4068,11 @@
       <c r="F98" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -3598,8 +4091,11 @@
       <c r="F99" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -3618,8 +4114,11 @@
       <c r="F100" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -3638,8 +4137,11 @@
       <c r="F101" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -3658,8 +4160,11 @@
       <c r="F102" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -3678,8 +4183,11 @@
       <c r="F103" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -3698,8 +4206,11 @@
       <c r="F104" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -3718,8 +4229,11 @@
       <c r="F105" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -3738,8 +4252,11 @@
       <c r="F106" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -3758,8 +4275,14 @@
       <c r="F107" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -3778,8 +4301,11 @@
       <c r="F108" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -3798,8 +4324,11 @@
       <c r="F109" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -3818,8 +4347,11 @@
       <c r="F110" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3838,8 +4370,11 @@
       <c r="F111" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3858,8 +4393,11 @@
       <c r="F112" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -3878,8 +4416,11 @@
       <c r="F113" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3898,8 +4439,14 @@
       <c r="F114" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -3917,6 +4464,9 @@
       </c>
       <c r="F115" t="s">
         <v>349</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/migrating_birds_results.xlsx
+++ b/data/migrating_birds_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgcrp/Documents/GitHub/hse_graphvis_2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E32CA-1B3D-BC47-875D-7FC0DB22785C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C22BB7-5E49-9B4D-B908-E61D88858A0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="25360" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1700,9 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
